--- a/server/src/public/siswa.xlsx
+++ b/server/src/public/siswa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>siswa_nis</t>
   </si>
@@ -42,25 +42,19 @@
     <t>d_kelas_id</t>
   </si>
   <si>
-    <t>sarwer</t>
-  </si>
-  <si>
-    <t>21edwq</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>profile.png</t>
   </si>
   <si>
-    <t>Raka</t>
-  </si>
-  <si>
-    <t>Ade</t>
-  </si>
-  <si>
-    <t>Rafly</t>
+    <t>Asti</t>
+  </si>
+  <si>
+    <t>Damah</t>
+  </si>
+  <si>
+    <t>Anis</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -463,19 +457,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>99028129</v>
+        <v>990229</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>1234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -489,19 +480,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>200</v>
+        <v>921200</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -515,19 +503,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>300</v>
+        <v>231213</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>3</v>

--- a/server/src/public/siswa.xlsx
+++ b/server/src/public/siswa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>siswa_nis</t>
   </si>
@@ -42,19 +42,25 @@
     <t>d_kelas_id</t>
   </si>
   <si>
+    <t>sarwer</t>
+  </si>
+  <si>
+    <t>21edwq</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>profile.png</t>
   </si>
   <si>
-    <t>Asti</t>
-  </si>
-  <si>
-    <t>Damah</t>
-  </si>
-  <si>
-    <t>Anis</t>
-  </si>
-  <si>
-    <t>P</t>
+    <t>Raka</t>
+  </si>
+  <si>
+    <t>Ade</t>
+  </si>
+  <si>
+    <t>Rafly</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,16 +463,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>990229</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -480,16 +489,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>921200</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -503,16 +515,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>231213</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
       </c>
       <c r="F4">
         <v>3</v>

--- a/server/src/public/siswa.xlsx
+++ b/server/src/public/siswa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>siswa_nis</t>
   </si>
@@ -42,25 +42,19 @@
     <t>d_kelas_id</t>
   </si>
   <si>
-    <t>sarwer</t>
-  </si>
-  <si>
-    <t>21edwq</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>profile.png</t>
   </si>
   <si>
-    <t>Raka</t>
-  </si>
-  <si>
-    <t>Ade</t>
-  </si>
-  <si>
-    <t>Rafly</t>
+    <t>Asti</t>
+  </si>
+  <si>
+    <t>Damah</t>
+  </si>
+  <si>
+    <t>Anis</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -419,7 +413,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,19 +457,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>100</v>
+        <v>990229</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>1234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -489,19 +480,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>200</v>
+        <v>921200</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -515,19 +503,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>300</v>
+        <v>231213</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>3</v>

--- a/server/src/public/siswa.xlsx
+++ b/server/src/public/siswa.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5612C9D-F4AD-494E-B437-756B55E62E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>siswa_nis</t>
   </si>
@@ -24,15 +30,9 @@
     <t>siswa_nama</t>
   </si>
   <si>
-    <t>siswa_password</t>
-  </si>
-  <si>
     <t>siswa_gender</t>
   </si>
   <si>
-    <t>siswa_img</t>
-  </si>
-  <si>
     <t>kelas_id</t>
   </si>
   <si>
@@ -42,16 +42,112 @@
     <t>d_kelas_id</t>
   </si>
   <si>
-    <t>profile.png</t>
-  </si>
-  <si>
-    <t>Asti</t>
-  </si>
-  <si>
-    <t>Damah</t>
-  </si>
-  <si>
-    <t>Anis</t>
+    <t>L</t>
+  </si>
+  <si>
+    <t>ABEL NATANAEL HUTAPEA</t>
+  </si>
+  <si>
+    <t>ADE RAFIF HILMANSYAH</t>
+  </si>
+  <si>
+    <t>ADILLA MARSYA SOFHIANTI</t>
+  </si>
+  <si>
+    <t>AGNIA PINASTI AULIA</t>
+  </si>
+  <si>
+    <t>AGUSTIN WULANDARI</t>
+  </si>
+  <si>
+    <t>AHMAD FADHILAH</t>
+  </si>
+  <si>
+    <t>AMELIA ADESTI</t>
+  </si>
+  <si>
+    <t>ANDRI HARTONO</t>
+  </si>
+  <si>
+    <t>ANGGA DWI ADITYA</t>
+  </si>
+  <si>
+    <t>ANISA NUR FADILA</t>
+  </si>
+  <si>
+    <t>ARIPIN</t>
+  </si>
+  <si>
+    <t>AYUM ADAWIYAH</t>
+  </si>
+  <si>
+    <t>CUT SETIAWATI</t>
+  </si>
+  <si>
+    <t>DAMAHYANTI</t>
+  </si>
+  <si>
+    <t>DHAFIN MUKTI AL FARIZI</t>
+  </si>
+  <si>
+    <t>DIAN NURLAELA</t>
+  </si>
+  <si>
+    <t>EDELWEISS HARUMI JINGGA</t>
+  </si>
+  <si>
+    <t>ELIS SALLEHA</t>
+  </si>
+  <si>
+    <t>FAJAR NUR HIDAYAT</t>
+  </si>
+  <si>
+    <t>HISYAM DAFFA RABBANI</t>
+  </si>
+  <si>
+    <t>LUTHFI RAFIF PRADJOKO</t>
+  </si>
+  <si>
+    <t>MUHAMMAD MAGHVI FAJAR</t>
+  </si>
+  <si>
+    <t>PUTRI RAHAYU</t>
+  </si>
+  <si>
+    <t>RADEN FATAHILLAH SOENDJOTO</t>
+  </si>
+  <si>
+    <t>RAFLY HIDAYAT</t>
+  </si>
+  <si>
+    <t>RAKA SANTANG RABBANI</t>
+  </si>
+  <si>
+    <t>RIFQI ABDUL AZIZ AFIFI</t>
+  </si>
+  <si>
+    <t>ROSITA</t>
+  </si>
+  <si>
+    <t>SANTI</t>
+  </si>
+  <si>
+    <t>SITI KHUMAIROH</t>
+  </si>
+  <si>
+    <t>SITI NUR HOSITOH</t>
+  </si>
+  <si>
+    <t>SYAFA RANI ZAHIRA</t>
+  </si>
+  <si>
+    <t>VANIA ANDRYANI</t>
+  </si>
+  <si>
+    <t>VARITS GORGA</t>
+  </si>
+  <si>
+    <t>YUNI OCTAVIANI</t>
   </si>
   <si>
     <t>P</t>
@@ -60,14 +156,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,8 +192,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,22 +205,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="siswa_nis"/>
-    <tableColumn id="2" name="siswa_nama"/>
-    <tableColumn id="3" name="siswa_password"/>
-    <tableColumn id="4" name="siswa_gender"/>
-    <tableColumn id="5" name="siswa_img"/>
-    <tableColumn id="6" name="kelas_id"/>
-    <tableColumn id="7" name="jurusan_id"/>
-    <tableColumn id="8" name="d_kelas_id"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:F36" totalsRowShown="0">
+  <autoFilter ref="A1:F36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="siswa_nis"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="siswa_nama"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="siswa_gender"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="kelas_id"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="jurusan_id"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="d_kelas_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -166,7 +270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,9 +303,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +355,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,27 +547,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,80 +586,705 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>192010429</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>990229</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>192010430</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>192010431</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>192010432</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>192010433</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>192010434</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>921200</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>231213</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>192010435</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>192010436</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>192010437</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>192010438</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>192010439</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>192010440</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>192010441</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>192010442</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>192010443</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>192010444</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>192010445</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>192010446</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>192010447</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>192010448</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>192010449</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>192010450</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>192010451</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>192010452</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>192010453</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>192010454</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>192010455</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>192010456</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>192010457</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>192010458</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>192010459</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>192010460</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>192010461</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>192010462</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>192010463</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -533,24 +1296,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/src/public/siswa.xlsx
+++ b/server/src/public/siswa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>siswa_nis</t>
   </si>
@@ -24,37 +24,46 @@
     <t>siswa_nama</t>
   </si>
   <si>
-    <t>siswa_password</t>
-  </si>
-  <si>
     <t>siswa_gender</t>
   </si>
   <si>
-    <t>siswa_img</t>
-  </si>
-  <si>
-    <t>kelas_id</t>
-  </si>
-  <si>
-    <t>jurusan_id</t>
-  </si>
-  <si>
-    <t>d_kelas_id</t>
-  </si>
-  <si>
-    <t>profile.png</t>
-  </si>
-  <si>
-    <t>Asti</t>
-  </si>
-  <si>
-    <t>Damah</t>
-  </si>
-  <si>
-    <t>Anis</t>
-  </si>
-  <si>
-    <t>P</t>
+    <t>Raka</t>
+  </si>
+  <si>
+    <t>Varits</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>nama_jurusan</t>
+  </si>
+  <si>
+    <t>RPL</t>
+  </si>
+  <si>
+    <t>TKJ</t>
+  </si>
+  <si>
+    <t>kelas</t>
+  </si>
+  <si>
+    <t>d_kelas</t>
+  </si>
+  <si>
+    <t>XII</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>TEI</t>
   </si>
 </sst>
 </file>
@@ -107,17 +116,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F10" totalsRowShown="0">
+  <autoFilter ref="A1:F10"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="siswa_nis"/>
     <tableColumn id="2" name="siswa_nama"/>
-    <tableColumn id="3" name="siswa_password"/>
     <tableColumn id="4" name="siswa_gender"/>
-    <tableColumn id="5" name="siswa_img"/>
-    <tableColumn id="6" name="kelas_id"/>
-    <tableColumn id="7" name="jurusan_id"/>
-    <tableColumn id="8" name="d_kelas_id"/>
+    <tableColumn id="6" name="kelas"/>
+    <tableColumn id="7" name="nama_jurusan"/>
+    <tableColumn id="8" name="d_kelas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -410,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,14 +429,14 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,88 +447,73 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>990229</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>921200</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>231213</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/public/siswa.xlsx
+++ b/server/src/public/siswa.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>

--- a/server/src/public/siswa.xlsx
+++ b/server/src/public/siswa.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otwku\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4511D2C-07F9-44B4-8AFB-57CACE87B3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>siswa_nis</t>
   </si>
@@ -51,17 +57,125 @@
     <t>Damah</t>
   </si>
   <si>
-    <t>Anis</t>
-  </si>
-  <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>ABDUL ROHMAN</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>ADHI CANDRA WINATA</t>
+  </si>
+  <si>
+    <t>ALDI RAHMAN</t>
+  </si>
+  <si>
+    <t>ALFIAN</t>
+  </si>
+  <si>
+    <t>ALIF SADDAM WICAKSONO</t>
+  </si>
+  <si>
+    <t>ANGGITO ABIMANYU</t>
+  </si>
+  <si>
+    <t>ASEP SUDARMAN</t>
+  </si>
+  <si>
+    <t>CAHYO RAMADHAN</t>
+  </si>
+  <si>
+    <t>DHEA MUTIARA GADING</t>
+  </si>
+  <si>
+    <t>FERI RAMDANI</t>
+  </si>
+  <si>
+    <t>FRANS PRANATA SIMANJUNTAK</t>
+  </si>
+  <si>
+    <t>GILANG RAMADHAN</t>
+  </si>
+  <si>
+    <t>HENDI PRATAMA</t>
+  </si>
+  <si>
+    <t>JAMALUDIN</t>
+  </si>
+  <si>
+    <t>JANUAR ZEIN</t>
+  </si>
+  <si>
+    <t>JUNIARIF DWI CAHYO</t>
+  </si>
+  <si>
+    <t>MARKUS BENEDIKTUS OKI</t>
+  </si>
+  <si>
+    <t>MASRUP HIDAYAT</t>
+  </si>
+  <si>
+    <t>MAULANA ISMAIL</t>
+  </si>
+  <si>
+    <t>MIMIN MINTARSIH</t>
+  </si>
+  <si>
+    <t>MUHAMAD GIAN PARHAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ADNAN NABIL</t>
+  </si>
+  <si>
+    <t>MUHAMMAD DHANDY IHSAN</t>
+  </si>
+  <si>
+    <t>NAUFAL MUTTAQIN</t>
+  </si>
+  <si>
+    <t>RAFLI DWI SEPTIANA</t>
+  </si>
+  <si>
+    <t>RAIHAN GIBRAN SYARIEF</t>
+  </si>
+  <si>
+    <t>RIFKY ANDRIANSYAH</t>
+  </si>
+  <si>
+    <t>RIZKY RAMADHAN</t>
+  </si>
+  <si>
+    <t>SANJAYA</t>
+  </si>
+  <si>
+    <t>SATRYO BAGUS WIBISONO</t>
+  </si>
+  <si>
+    <t>SUKMA WIJAYA KOMARI</t>
+  </si>
+  <si>
+    <t>SYAIAN YANIS SAHID</t>
+  </si>
+  <si>
+    <t>SYAIRUL GUNAWAN</t>
+  </si>
+  <si>
+    <t>TITO KURNIAWAN</t>
+  </si>
+  <si>
+    <t>WAHYU RIZKI ILLAHI</t>
+  </si>
+  <si>
+    <t>WINTANSARI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +183,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -86,12 +212,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,22 +354,25 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:H39" totalsRowShown="0">
+  <autoFilter ref="A1:H39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="siswa_nis"/>
-    <tableColumn id="2" name="siswa_nama"/>
-    <tableColumn id="3" name="siswa_password"/>
-    <tableColumn id="4" name="siswa_gender"/>
-    <tableColumn id="5" name="siswa_img"/>
-    <tableColumn id="6" name="kelas_id"/>
-    <tableColumn id="7" name="jurusan_id"/>
-    <tableColumn id="8" name="d_kelas_id"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="siswa_nis"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="siswa_nama"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="siswa_password"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="siswa_gender"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="siswa_img"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="kelas_id"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="jurusan_id"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="d_kelas_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -166,7 +421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,9 +454,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +506,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,27 +698,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,15 +744,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>990229</v>
+        <v>9919911229</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -478,15 +767,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>921200</v>
+        <v>121338323</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -501,56 +790,1007 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>231213</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>192010001</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>192010002</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>192010003</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>192010005</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>192010006</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>192010007</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>192010008</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>192010009</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>192010010</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
+      <c r="E12" s="11"/>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>192010011</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>192010012</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>192010013</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>192010014</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>192010015</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>192010016</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>192010017</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>192010018</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>192010019</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>192010020</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5">
+        <v>5</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>192010021</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" s="5">
+        <v>5</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>192010022</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" s="5">
+        <v>5</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>192010023</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" s="5">
+        <v>5</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>192010024</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="5">
+        <v>5</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>192010025</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" s="5">
+        <v>5</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>192010026</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5">
+        <v>5</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>192010027</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" s="5">
+        <v>5</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>192010028</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" s="5">
+        <v>5</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
+        <v>192010029</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" s="5">
+        <v>5</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
+        <v>192010030</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" s="5">
+        <v>5</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
+        <v>192010031</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" s="5">
+        <v>5</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
+        <v>192010032</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5">
+        <v>5</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10">
+        <v>192010033</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" s="5">
+        <v>5</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10">
+        <v>192010034</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5">
+        <v>5</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10">
+        <v>192010035</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" s="5">
+        <v>5</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
+        <v>192010036</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" s="5">
+        <v>5</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>192010037</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39" s="5">
+        <v>5</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
